--- a/tests/models/features/inverse/input_data/input_data.xlsx
+++ b/tests/models/features/inverse/input_data/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\fixtures\inverse\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\models\features\inverse\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66F810B-7363-4E11-9EC2-F6945BC15EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFEA903-F8D3-48BF-B9FF-4FBAF5B69A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3530" yWindow="2340" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technical_coeffs" sheetId="1" r:id="rId1"/>
@@ -38,15 +38,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>c_Name</t>
-  </si>
-  <si>
-    <t>p_Name</t>
-  </si>
-  <si>
-    <t>t_Name</t>
-  </si>
-  <si>
     <t>values</t>
   </si>
   <si>
@@ -69,6 +60,15 @@
   </si>
   <si>
     <t>services</t>
+  </si>
+  <si>
+    <t>cases_Name</t>
+  </si>
+  <si>
+    <t>products_Name</t>
+  </si>
+  <si>
+    <t>technologies_Name</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -485,13 +485,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
       <c r="E3">
         <v>0.4</v>
@@ -502,13 +502,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="E4">
         <v>0.3</v>
@@ -519,13 +519,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>0.3</v>
@@ -536,13 +536,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0.2</v>
@@ -570,13 +570,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>0.6</v>
@@ -587,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>0</v>
